--- a/2022/Realme/January/26.01.2022/realme Bank Statement January-2022.xlsx
+++ b/2022/Realme/January/26.01.2022/realme Bank Statement January-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Jan-2022" sheetId="7" r:id="rId1"/>
@@ -2487,55 +2487,55 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3171,7 +3171,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4104,67 +4104,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="248" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="252"/>
-      <c r="O1" s="252"/>
-      <c r="P1" s="252"/>
-      <c r="Q1" s="252"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="248"/>
+      <c r="L1" s="248"/>
+      <c r="M1" s="248"/>
+      <c r="N1" s="248"/>
+      <c r="O1" s="248"/>
+      <c r="P1" s="248"/>
+      <c r="Q1" s="248"/>
     </row>
     <row r="2" spans="1:24" s="103" customFormat="1" ht="18">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="249" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="253"/>
-      <c r="I2" s="253"/>
-      <c r="J2" s="253"/>
-      <c r="K2" s="253"/>
-      <c r="L2" s="253"/>
-      <c r="M2" s="253"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="253"/>
-      <c r="P2" s="253"/>
-      <c r="Q2" s="253"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="249"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="249"/>
+      <c r="Q2" s="249"/>
     </row>
     <row r="3" spans="1:24" s="104" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="254" t="s">
+      <c r="A3" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="255"/>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="255"/>
-      <c r="K3" s="255"/>
-      <c r="L3" s="255"/>
-      <c r="M3" s="255"/>
-      <c r="N3" s="255"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="255"/>
-      <c r="Q3" s="256"/>
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="251"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="252"/>
       <c r="S3" s="48"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4173,52 +4173,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="106" customFormat="1">
-      <c r="A4" s="257" t="s">
+      <c r="A4" s="253" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="259" t="s">
+      <c r="B4" s="255" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="248" t="s">
+      <c r="C4" s="257" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="248" t="s">
+      <c r="D4" s="257" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="248" t="s">
+      <c r="E4" s="257" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="248" t="s">
+      <c r="F4" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="248" t="s">
+      <c r="G4" s="257" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="248" t="s">
+      <c r="H4" s="257" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="248" t="s">
+      <c r="I4" s="257" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="248" t="s">
+      <c r="J4" s="257" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="248" t="s">
+      <c r="K4" s="257" t="s">
         <v>93</v>
       </c>
-      <c r="L4" s="248" t="s">
+      <c r="L4" s="257" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="248" t="s">
+      <c r="M4" s="257" t="s">
         <v>57</v>
       </c>
-      <c r="N4" s="250" t="s">
+      <c r="N4" s="263" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="263" t="s">
+      <c r="O4" s="261" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="261" t="s">
+      <c r="P4" s="259" t="s">
         <v>35</v>
       </c>
       <c r="Q4" s="105" t="s">
@@ -4231,22 +4231,22 @@
       <c r="W4" s="108"/>
     </row>
     <row r="5" spans="1:24" s="106" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="258"/>
-      <c r="B5" s="260"/>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="249"/>
-      <c r="K5" s="249"/>
-      <c r="L5" s="249"/>
-      <c r="M5" s="249"/>
-      <c r="N5" s="251"/>
-      <c r="O5" s="264"/>
-      <c r="P5" s="262"/>
+      <c r="A5" s="254"/>
+      <c r="B5" s="256"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="258"/>
+      <c r="G5" s="258"/>
+      <c r="H5" s="258"/>
+      <c r="I5" s="258"/>
+      <c r="J5" s="258"/>
+      <c r="K5" s="258"/>
+      <c r="L5" s="258"/>
+      <c r="M5" s="258"/>
+      <c r="N5" s="264"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="260"/>
       <c r="Q5" s="110" t="s">
         <v>36</v>
       </c>
@@ -7338,9 +7338,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -7357,6 +7354,9 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7368,8 +7368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI226"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9768,7 +9768,7 @@
       <c r="D36" s="284"/>
       <c r="E36" s="207">
         <f>F33-C113+K116</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F36" s="202"/>
       <c r="G36" s="60"/>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="B51" s="221"/>
       <c r="C51" s="224">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="D51" s="221" t="s">
         <v>106</v>
@@ -14685,7 +14685,7 @@
       <c r="B113" s="268"/>
       <c r="C113" s="201">
         <f>SUM(C37:C112)</f>
-        <v>587070</v>
+        <v>584070</v>
       </c>
       <c r="D113" s="200"/>
       <c r="F113" s="89"/>
@@ -16111,8 +16111,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
